--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_3_4.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_3_4.xlsx
@@ -478,311 +478,311 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_0</t>
+          <t>model_3_4_14</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7800888666255869</v>
+        <v>0.4567298723768207</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4055725471848535</v>
+        <v>0.37171223060512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1647733716709798</v>
+        <v>0.02392432025418956</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5278170455312701</v>
+        <v>0.2566516092192352</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2433768212795258</v>
+        <v>0.6012398600578308</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3357781171798706</v>
+        <v>0.3584466874599457</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1903690248727798</v>
+        <v>0.3441643118858337</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2673503160476685</v>
+        <v>0.3517256677150726</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_1</t>
+          <t>model_3_4_13</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.783868898213928</v>
+        <v>0.4577389063096384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.402344164534721</v>
+        <v>0.3769886825609916</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1833365200044674</v>
+        <v>0.0383354182278266</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5296286932979615</v>
+        <v>0.2650739331505179</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2391934394836426</v>
+        <v>0.6001232862472534</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3376017510890961</v>
+        <v>0.355436384677887</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1861380189657211</v>
+        <v>0.3390829563140869</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2663245499134064</v>
+        <v>0.3477405309677124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_2</t>
+          <t>model_3_4_17</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7872640167361741</v>
+        <v>0.4580330571903534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3543250726169658</v>
+        <v>0.364370703337464</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.05699935586302507</v>
+        <v>0.04781697555662257</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4587378167745435</v>
+        <v>0.260344400631246</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2354360669851303</v>
+        <v>0.5997976660728455</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3647266030311584</v>
+        <v>0.3626351356506348</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2409165650606155</v>
+        <v>0.3357397317886353</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3064630031585693</v>
+        <v>0.3499784171581268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_3</t>
+          <t>model_3_4_15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.796140513571723</v>
+        <v>0.4581782295104782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3144156477830351</v>
+        <v>0.3664524508238256</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1869218800095573</v>
+        <v>0.05889126693076552</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4838658355600028</v>
+        <v>0.2655564754080674</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2256123721599579</v>
+        <v>0.5996370315551758</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3872705101966858</v>
+        <v>0.3614474534988403</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1853208094835281</v>
+        <v>0.3318349421024323</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2922355234622955</v>
+        <v>0.3475122451782227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_4</t>
+          <t>model_3_4_18</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7989114559289837</v>
+        <v>0.4583182283890477</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3146107756981176</v>
+        <v>0.3651082871751938</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2114140368205092</v>
+        <v>0.05238706707219498</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4886091102565377</v>
+        <v>0.2624175001586527</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2225457578897476</v>
+        <v>0.5994821190834045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3871603012084961</v>
+        <v>0.3622142970561981</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1797384321689606</v>
+        <v>0.3341283202171326</v>
       </c>
       <c r="I6" t="n">
-        <v>0.289549857378006</v>
+        <v>0.3489974737167358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_23</t>
+          <t>model_3_4_24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8002461773618216</v>
+        <v>0.4588561908729726</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2885198720029355</v>
+        <v>0.3615684829484788</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2263789009133458</v>
+        <v>0.06215273514001007</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4776633251967481</v>
+        <v>0.2635827927600404</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2210686206817627</v>
+        <v>0.5988867878913879</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4018984138965607</v>
+        <v>0.3642338216304779</v>
       </c>
       <c r="H7" t="n">
-        <v>0.17632757127285</v>
+        <v>0.3306849896907806</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2957473993301392</v>
+        <v>0.3484461009502411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_24</t>
+          <t>model_3_4_20</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8003198483433424</v>
+        <v>0.4593044979292318</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2892372960815487</v>
+        <v>0.3665309726342261</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2266135164242981</v>
+        <v>0.07010863350528029</v>
       </c>
       <c r="E8" t="n">
-        <v>0.478086497624193</v>
+        <v>0.2695405060721869</v>
       </c>
       <c r="F8" t="n">
-        <v>0.22098708152771</v>
+        <v>0.5983905792236328</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4014931917190552</v>
+        <v>0.3614026308059692</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1762741059064865</v>
+        <v>0.3278797268867493</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2955077588558197</v>
+        <v>0.3456271290779114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_20</t>
+          <t>model_3_4_19</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8007868842447885</v>
+        <v>0.4595599885935927</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2940281557121598</v>
+        <v>0.3685925233513023</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2333471661523155</v>
+        <v>0.07330182954581954</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4818925200877181</v>
+        <v>0.2719758470462915</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2204702198505402</v>
+        <v>0.5981078147888184</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3987869024276733</v>
+        <v>0.3602265119552612</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1747393310070038</v>
+        <v>0.3267537951469421</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2933527827262878</v>
+        <v>0.3444747924804688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_22</t>
+          <t>model_3_4_21</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8010020642721905</v>
+        <v>0.459649421620225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2952867932314223</v>
+        <v>0.3686625855539842</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2356092496545575</v>
+        <v>0.073586961147459</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4829856131468565</v>
+        <v>0.2721213034347701</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2202320843935013</v>
+        <v>0.5980088114738464</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3980759382247925</v>
+        <v>0.3601865172386169</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1742237508296967</v>
+        <v>0.3266532719135284</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2927338778972626</v>
+        <v>0.3444059789180756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_21</t>
+          <t>model_3_4_23</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8010783421864169</v>
+        <v>0.4596852073188684</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2958184959063744</v>
+        <v>0.3660962335023945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.236729512421519</v>
+        <v>0.07491891274944007</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4834788861544496</v>
+        <v>0.2709498999097595</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2201476544141769</v>
+        <v>0.5979692339897156</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3977755904197693</v>
+        <v>0.361650675535202</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1739684194326401</v>
+        <v>0.3261836171150208</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2924546003341675</v>
+        <v>0.3449602723121643</v>
       </c>
     </row>
     <row r="12">
@@ -792,462 +792,462 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8010976513467258</v>
+        <v>0.4598414981280892</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2974524739149026</v>
+        <v>0.3665555952801827</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2411668527708964</v>
+        <v>0.09108996137228176</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4851822767902972</v>
+        <v>0.276913914519416</v>
       </c>
       <c r="F12" t="n">
-        <v>0.220126286149025</v>
+        <v>0.5977963209152222</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3968526124954224</v>
+        <v>0.3613885641098022</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1729570329189301</v>
+        <v>0.3204816877841949</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2914901077747345</v>
+        <v>0.3421382904052734</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_19</t>
+          <t>model_3_4_22</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8011459540385626</v>
+        <v>0.4599480430986721</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2947580873609681</v>
+        <v>0.3685486599950718</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2442392788885722</v>
+        <v>0.07971190740605771</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4843414377328367</v>
+        <v>0.2741957284588185</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2200728356838226</v>
+        <v>0.5976783633232117</v>
       </c>
       <c r="G13" t="n">
-        <v>0.398374617099762</v>
+        <v>0.3602515459060669</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1722567528486252</v>
+        <v>0.3244935870170593</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2919661998748779</v>
+        <v>0.3434244692325592</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_18</t>
+          <t>model_3_4_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8011839402623631</v>
+        <v>0.4608451495644421</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2952632631775864</v>
+        <v>0.3818700365554029</v>
       </c>
       <c r="D14" t="n">
-        <v>0.244463882196149</v>
+        <v>0.1199351750973262</v>
       </c>
       <c r="E14" t="n">
-        <v>0.484650709110282</v>
+        <v>0.2968057435517027</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2200307846069336</v>
+        <v>0.596685528755188</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3980892598628998</v>
+        <v>0.3526515066623688</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1722055673599243</v>
+        <v>0.3103108704090118</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2917911410331726</v>
+        <v>0.3327262103557587</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_17</t>
+          <t>model_3_4_5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8015682556052818</v>
+        <v>0.4636970960529666</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2967111271649059</v>
+        <v>0.448860572951158</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2556166845653434</v>
+        <v>0.2499431937190864</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4875285877444557</v>
+        <v>0.3851588339145604</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2196054607629776</v>
+        <v>0.5935292840003967</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3972713649272919</v>
+        <v>0.3144325017929077</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1696635633707047</v>
+        <v>0.2644700407981873</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2901616394519806</v>
+        <v>0.2909207046031952</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_7</t>
+          <t>model_3_4_11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.801683361631768</v>
+        <v>0.4637999320571734</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3034424671463168</v>
+        <v>0.4017288223839247</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2700386486986057</v>
+        <v>0.1519558575273813</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4938156933236146</v>
+        <v>0.3207110665089121</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2194781005382538</v>
+        <v>0.5934154391288757</v>
       </c>
       <c r="G16" t="n">
-        <v>0.393468976020813</v>
+        <v>0.3413218259811401</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1663764417171478</v>
+        <v>0.299020379781723</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2866019010543823</v>
+        <v>0.3214150667190552</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_8</t>
+          <t>model_3_4_6</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8017045854190603</v>
+        <v>0.4640488188825171</v>
       </c>
       <c r="C17" t="n">
-        <v>0.303710930293832</v>
+        <v>0.4382723172112011</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2693811793149136</v>
+        <v>0.2326280318398001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4938331669762545</v>
+        <v>0.3723276325770185</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2194545716047287</v>
+        <v>0.5931400656700134</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3933173418045044</v>
+        <v>0.3204732239246368</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1665262877941132</v>
+        <v>0.2705753445625305</v>
       </c>
       <c r="I17" t="n">
-        <v>0.286592036485672</v>
+        <v>0.2969919741153717</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_11</t>
+          <t>model_3_4_9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8017182499422106</v>
+        <v>0.4640873736260201</v>
       </c>
       <c r="C18" t="n">
-        <v>0.300041717482365</v>
+        <v>0.4212781453689705</v>
       </c>
       <c r="D18" t="n">
-        <v>0.275116497572729</v>
+        <v>0.1546115925609967</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4929816277072508</v>
+        <v>0.3341211861841124</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2194394767284393</v>
+        <v>0.5930973887443542</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3953900039196014</v>
+        <v>0.3301686346530914</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1652190685272217</v>
+        <v>0.2980839908123016</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2870741486549377</v>
+        <v>0.3150698840618134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_6</t>
+          <t>model_3_4_10</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8018410647970157</v>
+        <v>0.4643265891030439</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3036251781875577</v>
+        <v>0.4140217921489122</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2789838819124312</v>
+        <v>0.1591841892987714</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4956063320174511</v>
+        <v>0.3310927182834928</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2193035334348679</v>
+        <v>0.592832624912262</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3933657705783844</v>
+        <v>0.3343085050582886</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1643375903367996</v>
+        <v>0.2964716851711273</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2855880260467529</v>
+        <v>0.3165028393268585</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_10</t>
+          <t>model_3_4_7</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8019251498056703</v>
+        <v>0.4646160573074808</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3030876800876307</v>
+        <v>0.4391718731983731</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2746280003696013</v>
+        <v>0.1696262715250125</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4944975821128834</v>
+        <v>0.3508081816629252</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2192104905843735</v>
+        <v>0.5925122499465942</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3936693966388702</v>
+        <v>0.3199599981307983</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1653304100036621</v>
+        <v>0.2927897572517395</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2862158119678497</v>
+        <v>0.3071742057800293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_9</t>
+          <t>model_3_4_8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8019461400373215</v>
+        <v>0.4649492225632076</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3036413640498874</v>
+        <v>0.4350990370065861</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2740751321431185</v>
+        <v>0.1842947909284753</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4946853738192893</v>
+        <v>0.3533521808414812</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2191872596740723</v>
+        <v>0.5921435356140137</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3933566510677338</v>
+        <v>0.3222836256027222</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1654564142227173</v>
+        <v>0.2876176536083221</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2861094772815704</v>
+        <v>0.3059704303741455</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_12</t>
+          <t>model_3_4_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8019980716849089</v>
+        <v>0.4661589632802861</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2990098737300548</v>
+        <v>0.4951850277924436</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2846461124901993</v>
+        <v>0.3235080954002615</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4942419325321322</v>
+        <v>0.4405269289187165</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2191298007965088</v>
+        <v>0.5908046960830688</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3959728479385376</v>
+        <v>0.2880037724971771</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1630470156669617</v>
+        <v>0.2385310679674149</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2863605320453644</v>
+        <v>0.2647225260734558</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_13</t>
+          <t>model_3_4_4</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8020621698650483</v>
+        <v>0.4662904317337095</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2999098617704474</v>
+        <v>0.4788976176970122</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2826749140778653</v>
+        <v>0.2780193424810777</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4943433474596478</v>
+        <v>0.4141781901983619</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2190588563680649</v>
+        <v>0.5906592011451721</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3954644799232483</v>
+        <v>0.2972959280014038</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1634963154792786</v>
+        <v>0.2545703947544098</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2863031327724457</v>
+        <v>0.2771897912025452</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_15</t>
+          <t>model_3_4_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8021608026413254</v>
+        <v>0.4671672480960822</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3002591542373879</v>
+        <v>0.4987922077341442</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2807760612090395</v>
+        <v>0.3509205934811611</v>
       </c>
       <c r="E24" t="n">
-        <v>0.494168377239478</v>
+        <v>0.4524427545934624</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2189496904611588</v>
+        <v>0.5896888375282288</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3952671587467194</v>
+        <v>0.2859458327293396</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1639291048049927</v>
+        <v>0.228865385055542</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2864022254943848</v>
+        <v>0.2590843737125397</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_14</t>
+          <t>model_3_4_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8024251477223027</v>
+        <v>0.467578884231863</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3020960528746991</v>
+        <v>0.5002995891793853</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2856136059653954</v>
+        <v>0.3598483589059108</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4960551156218472</v>
+        <v>0.4565355558746832</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2186571508646011</v>
+        <v>0.5892332792282104</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3942295610904694</v>
+        <v>0.2850858271121979</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1628265082836151</v>
+        <v>0.2257174849510193</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2853339016437531</v>
+        <v>0.2571478188037872</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_4_5</t>
+          <t>model_3_4_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8025997388390747</v>
+        <v>0.4677296221541498</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3118990404870979</v>
+        <v>0.5170934064275281</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2880233164120704</v>
+        <v>0.3943330419469396</v>
       </c>
       <c r="E26" t="n">
-        <v>0.501689499782056</v>
+        <v>0.4793492558152669</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2184639275074005</v>
+        <v>0.5890665054321289</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3886920809745789</v>
+        <v>0.2755047380924225</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1622772812843323</v>
+        <v>0.2135581821203232</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2821437418460846</v>
+        <v>0.2463531792163849</v>
       </c>
     </row>
   </sheetData>
